--- a/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
+++ b/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
@@ -578,19 +578,19 @@
         <v>0.2164383561643836</v>
       </c>
       <c r="D4" t="n">
-        <v>115515.869752923</v>
+        <v>115588.2525109894</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01592502307528787</v>
+        <v>-0.01224077990359004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1990772191342972</v>
+        <v>0.179229836183176</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.054822895080575</v>
+        <v>-1.004376605563255</v>
       </c>
       <c r="H4" t="n">
-        <v>22.59032950166808</v>
+        <v>9.568966754044327</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -612,19 +612,19 @@
         <v>0.2931506849315069</v>
       </c>
       <c r="D5" t="n">
-        <v>116211.0805787633</v>
+        <v>116210.3841605729</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01862042913758765</v>
+        <v>-0.01876016353704567</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2098840880663143</v>
+        <v>0.2110870876821966</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.346662516236812</v>
+        <v>-1.412266168921447</v>
       </c>
       <c r="H5" t="n">
-        <v>11.11023615142587</v>
+        <v>11.92861027360767</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -646,19 +646,19 @@
         <v>0.389041095890411</v>
       </c>
       <c r="D6" t="n">
-        <v>117085.3086362548</v>
+        <v>117077.6657309065</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01804408797976221</v>
+        <v>-0.01873107783446396</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1957327655809966</v>
+        <v>0.1989536075674057</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5089991861496532</v>
+        <v>-0.6000217679317379</v>
       </c>
       <c r="H6" t="n">
-        <v>5.447365761971636</v>
+        <v>5.907066210377918</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4657534246575342</v>
       </c>
       <c r="D7" t="n">
-        <v>117651.688109483</v>
+        <v>117643.4294263742</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02112700459447586</v>
+        <v>-0.02221224002388503</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1985533269114679</v>
+        <v>0.2035558849628692</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.447509631384117</v>
+        <v>-0.5735490706616849</v>
       </c>
       <c r="H7" t="n">
-        <v>4.924906125811309</v>
+        <v>5.486543673453048</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -714,19 +714,19 @@
         <v>0.7150684931506849</v>
       </c>
       <c r="D8" t="n">
-        <v>118033.0961083623</v>
+        <v>117943.7718681236</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03100746028196988</v>
+        <v>-0.03342676312100754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1829234050421697</v>
+        <v>0.1899021976984366</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.044357573098943</v>
+        <v>-1.224330677113425</v>
       </c>
       <c r="H8" t="n">
-        <v>7.623420468169047</v>
+        <v>8.765372173076505</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.041095890410959</v>
       </c>
       <c r="D10" t="n">
-        <v>121131.23864154</v>
+        <v>121104.4003866674</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09440700874141618</v>
+        <v>-0.09787097527198921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3724649451006405</v>
+        <v>0.3925788658842621</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.539195331449584</v>
+        <v>-1.782893227396202</v>
       </c>
       <c r="H10" t="n">
-        <v>7.638666498372044</v>
+        <v>9.397937649256962</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -884,19 +884,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>113964.1828323864</v>
+        <v>114028.2038096776</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01790247203149638</v>
+        <v>-0.01297389370140632</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1248690766954584</v>
+        <v>0.1160858698519495</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6019047713575554</v>
+        <v>-0.2925775517246894</v>
       </c>
       <c r="H13" t="n">
-        <v>6.231117724616652</v>
+        <v>4.9482245951439</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -918,19 +918,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D14" t="n">
-        <v>113973.5165954895</v>
+        <v>113972.4301232762</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01800359444710063</v>
+        <v>-0.01808311698640697</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362922172484409</v>
+        <v>0.1364557410892673</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7495326897990063</v>
+        <v>-0.7546068212074712</v>
       </c>
       <c r="H14" t="n">
-        <v>8.339794479936625</v>
+        <v>8.359587161463592</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1022,19 +1022,19 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="D17" t="n">
-        <v>113870.6143231212</v>
+        <v>113892.031510227</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.03457679372244465</v>
+        <v>-0.03117937887729277</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1754765463214087</v>
+        <v>0.1485199320274635</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.875323048374219</v>
+        <v>-0.5434261775285498</v>
       </c>
       <c r="H17" t="n">
-        <v>41.74605748340719</v>
+        <v>3.89298725166621</v>
       </c>
       <c r="I17" t="n">
         <v>0.1152700735346838</v>
@@ -1098,19 +1098,19 @@
         <v>0.06301369863013699</v>
       </c>
       <c r="D19" t="n">
-        <v>114852.3618998145</v>
+        <v>114936.5091921413</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004737104570537671</v>
+        <v>0.009237655493657</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1681804327611288</v>
+        <v>0.1515487264717648</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.554544496040412</v>
+        <v>-0.7894635930751819</v>
       </c>
       <c r="H19" t="n">
-        <v>13.66311307545645</v>
+        <v>6.664206672859858</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1132,19 +1132,19 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="D20" t="n">
-        <v>114919.1486275211</v>
+        <v>114929.8521208075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00262655417426444</v>
+        <v>0.003273882903961198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1529268621405513</v>
+        <v>0.1500736356555293</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7141480375004229</v>
+        <v>-0.6080044081389298</v>
       </c>
       <c r="H20" t="n">
-        <v>6.127519854420505</v>
+        <v>5.557220421447647</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
+++ b/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>4.846217837762755</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1741306222569814</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.007661405384502213</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.1494289167025337</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.834056543320003</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>4.9482245951439</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0.1732893829452975</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006388042904982789</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.1320200159195386</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.192210077531122</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +948,18 @@
       <c r="H14" t="n">
         <v>8.359587161463592</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.1897922458443881</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00710953225032518</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.3236641155507869</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.042420822161466</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,10 +1026,18 @@
       <c r="H16" t="n">
         <v>9.44350494178971</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.2410106334485396</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02458410332041821</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.171992255373215</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.796393522117083</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">

--- a/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
+++ b/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>9.067577376010485</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.06883898519506858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1164750161008698</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.094118702056721</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.945400543641628</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,10 +1118,18 @@
       <c r="H18" t="n">
         <v>4.886035991046247</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.2540735597025808</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.02321765662336435</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9282963943500264</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.460369480840115</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
+++ b/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>6.664206672859858</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.07946202988409848</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2248679576934663</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.2126869254608079</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.850489859459953</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.557220421447647</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.3876132281515216</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4908161211871584</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1841657294355093</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.182193930958745</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
+++ b/data_processed/20250910/BTCUSDQMOMENT_20250910.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>8.774752746187053</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.002324162143818885</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5850523549518037</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4416249576227806</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.602162949010471</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
